--- a/biology/Botanique/Armenian_Heritage_Park/Armenian_Heritage_Park.xlsx
+++ b/biology/Botanique/Armenian_Heritage_Park/Armenian_Heritage_Park.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'Armenian Heritage Park est un parc et un mémorial dédié au génocide arménien, situé à Boston. Il constitue la treizième étape de la coulée verte Rose Fitzgerald Kennedy Greenway, entre Faneuil Hall et Christopher Columbus Park[1].
+L'Armenian Heritage Park est un parc et un mémorial dédié au génocide arménien, situé à Boston. Il constitue la treizième étape de la coulée verte Rose Fitzgerald Kennedy Greenway, entre Faneuil Hall et Christopher Columbus Park.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mémorial est notamment composé d'une sculpture entourée d'un bassin réfléchissant[2]. Celle-ci possède 24 à 26 configurations différentes, symbolique de la diaspora et des origines diverses[3]. Le mémorial est également composé d'une partie labyrinthique en herbe qui rend hommage à la contribution arménienne aux États-Unis. C'est également une symbolique du chemin de la vie[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mémorial est notamment composé d'une sculpture entourée d'un bassin réfléchissant. Celle-ci possède 24 à 26 configurations différentes, symbolique de la diaspora et des origines diverses. Le mémorial est également composé d'une partie labyrinthique en herbe qui rend hommage à la contribution arménienne aux États-Unis. C'est également une symbolique du chemin de la vie.
 </t>
         </is>
       </c>
